--- a/Решение уравнений пример 1-2-3- 4 метода.xlsx
+++ b/Решение уравнений пример 1-2-3- 4 метода.xlsx
@@ -2596,10 +2596,13 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="23" t="s">
@@ -2780,7 +2783,7 @@
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="34">
-        <f>I2/$B$2</f>
+        <f>I2/$I$2</f>
         <v>1</v>
       </c>
       <c r="J6" s="25">
@@ -2822,16 +2825,16 @@
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27">
-        <f>J3-I3*J$6</f>
+        <f>J3-$I3*J$6</f>
         <v>-105.95424836601308</v>
       </c>
       <c r="K7" s="27">
-        <f t="shared" ref="K7:L7" si="2">K3-J3*K$6</f>
-        <v>32.764705882352942</v>
+        <f t="shared" ref="K7:L8" si="2">K3-$I3*K$6</f>
+        <v>95.385620915032675</v>
       </c>
       <c r="L7" s="27">
         <f t="shared" si="2"/>
-        <v>85.117647058823536</v>
+        <v>91.941176470588232</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2856,16 +2859,16 @@
       <c r="H8" s="29"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27">
-        <f>J4-I4*$J$6</f>
+        <f>J4-$I4*J$6</f>
         <v>-41.405228758169933</v>
       </c>
       <c r="K8" s="27">
-        <f t="shared" ref="K8:L8" si="6">K4-J4*$J$6</f>
-        <v>87.633986928104576</v>
+        <f t="shared" si="2"/>
+        <v>125.01307189542484</v>
       </c>
       <c r="L8" s="27">
-        <f t="shared" si="6"/>
-        <v>0.15686274509803866</v>
+        <f t="shared" si="2"/>
+        <v>-50.764705882352942</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2905,11 +2908,11 @@
         <v>-0.90025291468755775</v>
       </c>
       <c r="E10" s="28">
-        <f t="shared" ref="E10:F10" si="7">E7/$C$7</f>
+        <f t="shared" ref="E10:F10" si="6">E7/$C$7</f>
         <v>-0.86774412436000237</v>
       </c>
       <c r="F10" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-8.4757263586453635E-2</v>
       </c>
       <c r="H10" s="29"/>
@@ -2920,11 +2923,11 @@
       </c>
       <c r="K10" s="28">
         <f>K7/$J$7</f>
-        <v>-0.30923447042131885</v>
+        <v>-0.90025291468755775</v>
       </c>
       <c r="L10" s="28">
         <f>L7/$J$7</f>
-        <v>-0.80334340879649624</v>
+        <v>-0.86774412436000237</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2951,12 +2954,12 @@
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27">
-        <f>K8-J8*K10</f>
-        <v>74.830062940398335</v>
+        <f>K8-$J$8*K10</f>
+        <v>87.737894022577279</v>
       </c>
       <c r="L11" s="27">
-        <f>L8-J8*L10</f>
-        <v>-33.105754867488912</v>
+        <f>L8-$J$8*L10</f>
+        <v>-86.693849855036689</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2968,11 +2971,11 @@
         <v>3.5547714514835604</v>
       </c>
       <c r="E12" s="27">
-        <f t="shared" ref="E12:F12" si="8">E9-$C$9*E10</f>
+        <f t="shared" ref="E12:F12" si="7">E9-$C$9*E10</f>
         <v>5.9292702485966311</v>
       </c>
       <c r="F12" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.7063352044907778</v>
       </c>
       <c r="H12" s="29"/>
@@ -3001,12 +3004,12 @@
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
       <c r="K13" s="34">
-        <f>K11/K11</f>
+        <f>K11/$K$11</f>
         <v>1</v>
       </c>
       <c r="L13" s="28">
         <f>L11/K11</f>
-        <v>-0.44241249528090648</v>
+        <v>-0.98810041910429336</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3053,7 +3056,7 @@
       </c>
       <c r="L15" s="27">
         <f>L13</f>
-        <v>-0.44241249528090648</v>
+        <v>-0.98810041910429336</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3071,7 +3074,7 @@
       <c r="K16" s="27"/>
       <c r="L16" s="27">
         <f>L10-K10*L15</f>
-        <v>-0.94015260248246157</v>
+        <v>-1.7572844066626399</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3096,7 +3099,7 @@
       <c r="K17" s="27"/>
       <c r="L17" s="27">
         <f>L6-K6*L15-J6*L16</f>
-        <v>-0.47550036826915515</v>
+        <v>-1.0616092451833938</v>
       </c>
     </row>
     <row r="18" spans="1:12">

--- a/Решение уравнений пример 1-2-3- 4 метода.xlsx
+++ b/Решение уравнений пример 1-2-3- 4 метода.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="679" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="679" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="отделение корня" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="метод касательных" sheetId="4" r:id="rId4"/>
     <sheet name="Метод Гаусса" sheetId="5" r:id="rId5"/>
     <sheet name="Лист1" sheetId="6" r:id="rId6"/>
+    <sheet name="Метод Якоби" sheetId="7" r:id="rId7"/>
+    <sheet name="Метод Зейделя" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>x</t>
   </si>
@@ -260,6 +262,30 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>точность</t>
+  </si>
+  <si>
+    <t>номер</t>
   </si>
 </sst>
 </file>
@@ -302,7 +328,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +398,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,6 +609,33 @@
     <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,15 +649,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -589,12 +669,22 @@
     <xf numFmtId="166" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2254,7 +2344,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="23">
@@ -2274,7 +2364,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="31"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="23">
         <v>1.3</v>
       </c>
@@ -2292,7 +2382,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="31"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="23">
         <v>6.2</v>
       </c>
@@ -2310,7 +2400,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="31"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="23">
         <v>1.2</v>
       </c>
@@ -2328,8 +2418,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="26" customFormat="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="34">
+      <c r="A6" s="41"/>
+      <c r="B6" s="31">
         <f>B2/$B$2</f>
         <v>1</v>
       </c>
@@ -2351,7 +2441,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="26" customFormat="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="38" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="27"/>
@@ -2373,7 +2463,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="26" customFormat="1">
-      <c r="A8" s="29"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27">
         <f t="shared" ref="C8:C9" si="1">C4-B4*C$6</f>
@@ -2393,7 +2483,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="26" customFormat="1">
-      <c r="A9" s="29"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27">
         <f t="shared" si="1"/>
@@ -2413,9 +2503,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="26" customFormat="1">
-      <c r="A10" s="29"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="34">
+      <c r="C10" s="31">
         <f>C7/C7</f>
         <v>1</v>
       </c>
@@ -2433,7 +2523,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="26" customFormat="1">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="38" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="27"/>
@@ -2452,7 +2542,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="26" customFormat="1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27">
@@ -2469,10 +2559,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="26" customFormat="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="34">
+      <c r="D13" s="31">
         <f>D11/D11</f>
         <v>1</v>
       </c>
@@ -2486,7 +2576,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="26" customFormat="1">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="38" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="27"/>
@@ -2502,11 +2592,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="26" customFormat="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="34">
+      <c r="E15" s="31">
         <f>E12/E12</f>
         <v>1</v>
       </c>
@@ -2516,21 +2606,21 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="26" customFormat="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6" s="26" customFormat="1">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="38" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="35">
+      <c r="E17" s="32">
         <v>1</v>
       </c>
       <c r="F17" s="27">
@@ -2539,10 +2629,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="26" customFormat="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="36">
+      <c r="D18" s="33">
         <v>1</v>
       </c>
       <c r="E18" s="27"/>
@@ -2552,9 +2642,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="26" customFormat="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="36">
+      <c r="C19" s="33">
         <v>1</v>
       </c>
       <c r="D19" s="27"/>
@@ -2565,8 +2655,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="26" customFormat="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="36">
+      <c r="A20" s="38"/>
+      <c r="B20" s="33">
         <v>1</v>
       </c>
       <c r="C20" s="27"/>
@@ -2596,12 +2686,14 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2640,7 +2732,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="23">
@@ -2658,7 +2750,7 @@
       <c r="F2" s="23">
         <v>6</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="39" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="23">
@@ -2675,7 +2767,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="31"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="23">
         <v>26</v>
       </c>
@@ -2691,7 +2783,7 @@
       <c r="F3" s="23">
         <v>10</v>
       </c>
-      <c r="H3" s="31"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="23">
         <v>26</v>
       </c>
@@ -2706,7 +2798,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="31"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="23">
         <v>32</v>
       </c>
@@ -2722,7 +2814,7 @@
       <c r="F4" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="23">
         <v>32</v>
       </c>
@@ -2737,7 +2829,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="31"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="23">
         <v>1.2</v>
       </c>
@@ -2753,15 +2845,15 @@
       <c r="F5" s="23">
         <v>1.6</v>
       </c>
-      <c r="H5" s="31"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="32"/>
-      <c r="B6" s="34">
+      <c r="A6" s="41"/>
+      <c r="B6" s="31">
         <f>B2/$B$2</f>
         <v>1</v>
       </c>
@@ -2781,26 +2873,26 @@
         <f t="shared" si="0"/>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="34">
+      <c r="H6" s="41"/>
+      <c r="I6" s="31">
         <f>I2/$I$2</f>
         <v>1</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="29">
         <f>J2/$I$2</f>
         <v>-0.42483660130718953</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="29">
         <f t="shared" ref="K6:L6" si="1">K2/$I$2</f>
         <v>-0.43790849673202614</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="29">
         <f t="shared" si="1"/>
         <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="38" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="27"/>
@@ -2820,25 +2912,25 @@
         <f>F3-B3*F6</f>
         <v>8.9803921568627452</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="38" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="27"/>
-      <c r="J7" s="27">
+      <c r="J7" s="30">
         <f>J3-$I3*J$6</f>
         <v>-105.95424836601308</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="30">
         <f t="shared" ref="K7:L8" si="2">K3-$I3*K$6</f>
         <v>95.385620915032675</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="30">
         <f t="shared" si="2"/>
         <v>91.941176470588232</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="29"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27">
         <f t="shared" ref="C8:C9" si="3">C4-B4*C$6</f>
@@ -2856,23 +2948,23 @@
         <f>F4-B4*F6</f>
         <v>-0.15490196078431362</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="27">
+      <c r="J8" s="30">
         <f>J4-$I4*J$6</f>
         <v>-41.405228758169933</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="30">
         <f t="shared" si="2"/>
         <v>125.01307189542484</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="30">
         <f t="shared" si="2"/>
         <v>-50.764705882352942</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="29"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27">
         <f t="shared" si="3"/>
@@ -2890,16 +2982,16 @@
         <f>F5-B5*F6</f>
         <v>1.5529411764705883</v>
       </c>
-      <c r="H9" s="29"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="29"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="34">
+      <c r="C10" s="31">
         <f>C7/C7</f>
         <v>1</v>
       </c>
@@ -2915,23 +3007,23 @@
         <f t="shared" si="6"/>
         <v>-8.4757263586453635E-2</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="34">
+      <c r="J10" s="31">
         <f>J7/J7</f>
         <v>1</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="36">
         <f>K7/$J$7</f>
         <v>-0.90025291468755775</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="36">
         <f>L7/$J$7</f>
         <v>-0.86774412436000237</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="38" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="27"/>
@@ -2948,22 +3040,22 @@
         <f>F8-C8*F10</f>
         <v>-3.6642958484979329</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="38" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
-      <c r="K11" s="27">
+      <c r="K11" s="30">
         <f>K8-$J$8*K10</f>
         <v>87.737894022577279</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="30">
         <f>L8-$J$8*L10</f>
         <v>-86.693849855036689</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="29"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27">
@@ -2978,17 +3070,17 @@
         <f t="shared" si="7"/>
         <v>1.7063352044907778</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="29"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="34">
+      <c r="D13" s="31">
         <f>D11/D11</f>
         <v>1</v>
       </c>
@@ -3000,20 +3092,20 @@
         <f>F11/D11</f>
         <v>-4.1764119019713566E-2</v>
       </c>
-      <c r="H13" s="29"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
-      <c r="K13" s="34">
+      <c r="K13" s="31">
         <f>K11/$K$11</f>
         <v>1</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="36">
         <f>L11/K11</f>
         <v>-0.98810041910429336</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="43" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="27"/>
@@ -3027,18 +3119,18 @@
         <f>F12-D12*F13</f>
         <v>1.8547971024784171</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="37"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="39"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="34">
+      <c r="E15" s="31">
         <f>E12/E12</f>
         <v>1</v>
       </c>
@@ -3046,67 +3138,67 @@
         <f>F14/E14</f>
         <v>0.19644650515286571</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="43" t="s">
         <v>39</v>
       </c>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
-      <c r="K15" s="36">
-        <v>1</v>
-      </c>
-      <c r="L15" s="27">
+      <c r="K15" s="33">
+        <v>1</v>
+      </c>
+      <c r="L15" s="30">
         <f>L13</f>
         <v>-0.98810041910429336</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="H16" s="38"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="H16" s="44"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="36">
+      <c r="J16" s="33">
         <v>1</v>
       </c>
       <c r="K16" s="27"/>
-      <c r="L16" s="27">
+      <c r="L16" s="30">
         <f>L10-K10*L15</f>
         <v>-1.7572844066626399</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="43" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="35">
+      <c r="E17" s="32">
         <v>1</v>
       </c>
       <c r="F17" s="27">
         <f>F15</f>
         <v>0.19644650515286571</v>
       </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="36">
+      <c r="H17" s="44"/>
+      <c r="I17" s="33">
         <v>1</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
-      <c r="L17" s="27">
+      <c r="L17" s="30">
         <f>L6-K6*L15-J6*L16</f>
         <v>-1.0616092451833938</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="38"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="36">
+      <c r="D18" s="33">
         <v>1</v>
       </c>
       <c r="E18" s="27"/>
@@ -3114,12 +3206,12 @@
         <f>F13-E13*F17</f>
         <v>0.15234475505340678</v>
       </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="38"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="36">
+      <c r="C19" s="33">
         <v>1</v>
       </c>
       <c r="D19" s="27"/>
@@ -3130,8 +3222,8 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="39"/>
-      <c r="B20" s="36">
+      <c r="A20" s="45"/>
+      <c r="B20" s="33">
         <v>1</v>
       </c>
       <c r="C20" s="27"/>
@@ -3157,4 +3249,1280 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H34"/>
+  <sheetViews>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="51">
+        <v>7</v>
+      </c>
+      <c r="B3" s="51">
+        <v>4</v>
+      </c>
+      <c r="C3" s="51">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="51">
+        <v>2</v>
+      </c>
+      <c r="B4" s="51">
+        <v>6</v>
+      </c>
+      <c r="C4" s="51">
+        <v>3</v>
+      </c>
+      <c r="D4" s="52">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="51">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="51">
+        <v>1</v>
+      </c>
+      <c r="C5" s="51">
+        <v>4</v>
+      </c>
+      <c r="D5" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="F6" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="54">
+        <v>1E-3</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="17">
+        <v>0</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="55">
+        <f>($A$3-$B$3*B8+C8)/7</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="55">
+        <f>($D$4-$A$4*A8-3*C8)/$B$4</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="C9" s="55">
+        <f>($D$5+A8-B8)/$C$5</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="55">
+        <f>ABS(A9-A8)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="55">
+        <f t="shared" ref="E9:F9" si="0">ABS(B9-B8)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F9" s="55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="17" t="str">
+        <f>IF(AND(D9&lt;$G$7, E9&lt;$G$7, F9&lt;$G$7), "Выполнено", "---")</f>
+        <v>---</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="55">
+        <f t="shared" ref="A10:A34" si="1">($A$3-$B$3*B9+C9)/7</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="B10" s="55">
+        <f t="shared" ref="B10:B34" si="2">($D$4-$A$4*A9-3*C9)/$B$4</f>
+        <v>-1.1666666666666667</v>
+      </c>
+      <c r="C10" s="55">
+        <f t="shared" ref="C10:C34" si="3">($D$5+A9-B9)/$C$5</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D10" s="55">
+        <f t="shared" ref="D10:D34" si="4">ABS(A10-A9)</f>
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="E10" s="55">
+        <f t="shared" ref="E10:E34" si="5">ABS(B10-B9)</f>
+        <v>0.83333333333333348</v>
+      </c>
+      <c r="F10" s="55">
+        <f t="shared" ref="F10:F34" si="6">ABS(C10-C9)</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="G10" s="17" t="str">
+        <f t="shared" ref="G10:G34" si="7">IF(AND(D10&lt;$G$7, E10&lt;$G$7, F10&lt;$G$7), "Выполнено", "---")</f>
+        <v>---</v>
+      </c>
+      <c r="H10" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="55">
+        <f t="shared" si="1"/>
+        <v>1.8571428571428574</v>
+      </c>
+      <c r="B11" s="55">
+        <f t="shared" si="2"/>
+        <v>-1.4444444444444446</v>
+      </c>
+      <c r="C11" s="55">
+        <f t="shared" si="3"/>
+        <v>1.6250000000000002</v>
+      </c>
+      <c r="D11" s="55">
+        <f t="shared" si="4"/>
+        <v>0.52380952380952395</v>
+      </c>
+      <c r="E11" s="55">
+        <f t="shared" si="5"/>
+        <v>0.2777777777777779</v>
+      </c>
+      <c r="F11" s="55">
+        <f t="shared" si="6"/>
+        <v>0.29166666666666696</v>
+      </c>
+      <c r="G11" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H11" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="55">
+        <f t="shared" si="1"/>
+        <v>2.0575396825396828</v>
+      </c>
+      <c r="B12" s="55">
+        <f t="shared" si="2"/>
+        <v>-1.7648809523809526</v>
+      </c>
+      <c r="C12" s="55">
+        <f t="shared" si="3"/>
+        <v>1.8253968253968256</v>
+      </c>
+      <c r="D12" s="55">
+        <f t="shared" si="4"/>
+        <v>0.20039682539682535</v>
+      </c>
+      <c r="E12" s="55">
+        <f t="shared" si="5"/>
+        <v>0.32043650793650791</v>
+      </c>
+      <c r="F12" s="55">
+        <f t="shared" si="6"/>
+        <v>0.20039682539682535</v>
+      </c>
+      <c r="G12" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H12" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="55">
+        <f t="shared" si="1"/>
+        <v>2.2692743764172336</v>
+      </c>
+      <c r="B13" s="55">
+        <f t="shared" si="2"/>
+        <v>-1.931878306878307</v>
+      </c>
+      <c r="C13" s="55">
+        <f t="shared" si="3"/>
+        <v>1.9556051587301588</v>
+      </c>
+      <c r="D13" s="55">
+        <f t="shared" si="4"/>
+        <v>0.21173469387755084</v>
+      </c>
+      <c r="E13" s="55">
+        <f t="shared" si="5"/>
+        <v>0.16699735449735442</v>
+      </c>
+      <c r="F13" s="55">
+        <f t="shared" si="6"/>
+        <v>0.13020833333333326</v>
+      </c>
+      <c r="G13" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H13" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="55">
+        <f t="shared" si="1"/>
+        <v>2.3833026266061981</v>
+      </c>
+      <c r="B14" s="55">
+        <f t="shared" si="2"/>
+        <v>-2.0675607048374904</v>
+      </c>
+      <c r="C14" s="55">
+        <f t="shared" si="3"/>
+        <v>2.0502881708238849</v>
+      </c>
+      <c r="D14" s="55">
+        <f t="shared" si="4"/>
+        <v>0.11402825018896445</v>
+      </c>
+      <c r="E14" s="55">
+        <f t="shared" si="5"/>
+        <v>0.13568239795918347</v>
+      </c>
+      <c r="F14" s="55">
+        <f t="shared" si="6"/>
+        <v>9.4683012093726093E-2</v>
+      </c>
+      <c r="G14" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H14" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="55">
+        <f t="shared" si="1"/>
+        <v>2.4743615700248354</v>
+      </c>
+      <c r="B15" s="55">
+        <f t="shared" si="2"/>
+        <v>-2.1529116276140083</v>
+      </c>
+      <c r="C15" s="55">
+        <f t="shared" si="3"/>
+        <v>2.1127158328609221</v>
+      </c>
+      <c r="D15" s="55">
+        <f t="shared" si="4"/>
+        <v>9.1058943418637295E-2</v>
+      </c>
+      <c r="E15" s="55">
+        <f t="shared" si="5"/>
+        <v>8.5350922776517901E-2</v>
+      </c>
+      <c r="F15" s="55">
+        <f t="shared" si="6"/>
+        <v>6.2427662037037202E-2</v>
+      </c>
+      <c r="G15" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H15" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="55">
+        <f t="shared" si="1"/>
+        <v>2.5320517633309936</v>
+      </c>
+      <c r="B16" s="55">
+        <f t="shared" si="2"/>
+        <v>-2.2144784397720727</v>
+      </c>
+      <c r="C16" s="55">
+        <f t="shared" si="3"/>
+        <v>2.1568182994097107</v>
+      </c>
+      <c r="D16" s="55">
+        <f t="shared" si="4"/>
+        <v>5.7690193306158211E-2</v>
+      </c>
+      <c r="E16" s="55">
+        <f t="shared" si="5"/>
+        <v>6.1566812158064366E-2</v>
+      </c>
+      <c r="F16" s="55">
+        <f t="shared" si="6"/>
+        <v>4.4102466548788577E-2</v>
+      </c>
+      <c r="G16" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H16" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="55">
+        <f t="shared" si="1"/>
+        <v>2.5735331512140003</v>
+      </c>
+      <c r="B17" s="55">
+        <f t="shared" si="2"/>
+        <v>-2.2557597374818532</v>
+      </c>
+      <c r="C17" s="55">
+        <f t="shared" si="3"/>
+        <v>2.1866325507757667</v>
+      </c>
+      <c r="D17" s="55">
+        <f t="shared" si="4"/>
+        <v>4.1481387883006704E-2</v>
+      </c>
+      <c r="E17" s="55">
+        <f t="shared" si="5"/>
+        <v>4.1281297709780507E-2</v>
+      </c>
+      <c r="F17" s="55">
+        <f t="shared" si="6"/>
+        <v>2.9814251366055977E-2</v>
+      </c>
+      <c r="G17" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H17" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="55">
+        <f t="shared" si="1"/>
+        <v>2.6013816429575969</v>
+      </c>
+      <c r="B18" s="55">
+        <f t="shared" si="2"/>
+        <v>-2.2844939924592169</v>
+      </c>
+      <c r="C18" s="55">
+        <f t="shared" si="3"/>
+        <v>2.2073232221739634</v>
+      </c>
+      <c r="D18" s="55">
+        <f t="shared" si="4"/>
+        <v>2.7848491743596604E-2</v>
+      </c>
+      <c r="E18" s="55">
+        <f t="shared" si="5"/>
+        <v>2.8734254977363705E-2</v>
+      </c>
+      <c r="F18" s="55">
+        <f t="shared" si="6"/>
+        <v>2.0690671398196692E-2</v>
+      </c>
+      <c r="G18" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H18" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="55">
+        <f t="shared" si="1"/>
+        <v>2.6207570274301184</v>
+      </c>
+      <c r="B19" s="55">
+        <f t="shared" si="2"/>
+        <v>-2.304122158739514</v>
+      </c>
+      <c r="C19" s="55">
+        <f t="shared" si="3"/>
+        <v>2.2214689088542032</v>
+      </c>
+      <c r="D19" s="55">
+        <f t="shared" si="4"/>
+        <v>1.9375384472521517E-2</v>
+      </c>
+      <c r="E19" s="55">
+        <f t="shared" si="5"/>
+        <v>1.9628166280297066E-2</v>
+      </c>
+      <c r="F19" s="55">
+        <f t="shared" si="6"/>
+        <v>1.4145686680239855E-2</v>
+      </c>
+      <c r="G19" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H19" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="55">
+        <f t="shared" si="1"/>
+        <v>2.6339939348303223</v>
+      </c>
+      <c r="B20" s="55">
+        <f t="shared" si="2"/>
+        <v>-2.3176534635704744</v>
+      </c>
+      <c r="C20" s="55">
+        <f t="shared" si="3"/>
+        <v>2.2312197965424079</v>
+      </c>
+      <c r="D20" s="55">
+        <f t="shared" si="4"/>
+        <v>1.323690740020389E-2</v>
+      </c>
+      <c r="E20" s="55">
+        <f t="shared" si="5"/>
+        <v>1.3531304830960433E-2</v>
+      </c>
+      <c r="F20" s="55">
+        <f t="shared" si="6"/>
+        <v>9.7508876882046458E-3</v>
+      </c>
+      <c r="G20" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H20" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="55">
+        <f t="shared" si="1"/>
+        <v>2.6431190929749007</v>
+      </c>
+      <c r="B21" s="55">
+        <f t="shared" si="2"/>
+        <v>-2.3269412098813116</v>
+      </c>
+      <c r="C21" s="55">
+        <f t="shared" si="3"/>
+        <v>2.2379118496001991</v>
+      </c>
+      <c r="D21" s="55">
+        <f t="shared" si="4"/>
+        <v>9.1251581445783714E-3</v>
+      </c>
+      <c r="E21" s="55">
+        <f t="shared" si="5"/>
+        <v>9.2877463108371749E-3</v>
+      </c>
+      <c r="F21" s="55">
+        <f t="shared" si="6"/>
+        <v>6.6920530577911919E-3</v>
+      </c>
+      <c r="G21" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H21" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="55">
+        <f t="shared" si="1"/>
+        <v>2.649382384160778</v>
+      </c>
+      <c r="B22" s="55">
+        <f t="shared" si="2"/>
+        <v>-2.3333289557917332</v>
+      </c>
+      <c r="C22" s="55">
+        <f t="shared" si="3"/>
+        <v>2.2425150757140533</v>
+      </c>
+      <c r="D22" s="55">
+        <f t="shared" si="4"/>
+        <v>6.2632911858773177E-3</v>
+      </c>
+      <c r="E22" s="55">
+        <f t="shared" si="5"/>
+        <v>6.3877459104215717E-3</v>
+      </c>
+      <c r="F22" s="55">
+        <f t="shared" si="6"/>
+        <v>4.6032261138542196E-3</v>
+      </c>
+      <c r="G22" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H22" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="55">
+        <f t="shared" si="1"/>
+        <v>2.6536901284115695</v>
+      </c>
+      <c r="B23" s="55">
+        <f t="shared" si="2"/>
+        <v>-2.3377183325772859</v>
+      </c>
+      <c r="C23" s="55">
+        <f t="shared" si="3"/>
+        <v>2.2456778349881277</v>
+      </c>
+      <c r="D23" s="55">
+        <f t="shared" si="4"/>
+        <v>4.3077442507915009E-3</v>
+      </c>
+      <c r="E23" s="55">
+        <f t="shared" si="5"/>
+        <v>4.3893767855527344E-3</v>
+      </c>
+      <c r="F23" s="55">
+        <f t="shared" si="6"/>
+        <v>3.1627592740743893E-3</v>
+      </c>
+      <c r="G23" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H23" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="55">
+        <f t="shared" si="1"/>
+        <v>2.6566501664710387</v>
+      </c>
+      <c r="B24" s="55">
+        <f t="shared" si="2"/>
+        <v>-2.3407356269645869</v>
+      </c>
+      <c r="C24" s="55">
+        <f t="shared" si="3"/>
+        <v>2.247852115247214</v>
+      </c>
+      <c r="D24" s="55">
+        <f t="shared" si="4"/>
+        <v>2.9600380594692055E-3</v>
+      </c>
+      <c r="E24" s="55">
+        <f t="shared" si="5"/>
+        <v>3.0172943873010283E-3</v>
+      </c>
+      <c r="F24" s="55">
+        <f t="shared" si="6"/>
+        <v>2.1742802590862809E-3</v>
+      </c>
+      <c r="G24" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H24" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="55">
+        <f t="shared" si="1"/>
+        <v>2.6586849461579374</v>
+      </c>
+      <c r="B25" s="55">
+        <f t="shared" si="2"/>
+        <v>-2.3428094464472866</v>
+      </c>
+      <c r="C25" s="55">
+        <f t="shared" si="3"/>
+        <v>2.2493464483589065</v>
+      </c>
+      <c r="D25" s="55">
+        <f t="shared" si="4"/>
+        <v>2.0347796868986912E-3</v>
+      </c>
+      <c r="E25" s="55">
+        <f t="shared" si="5"/>
+        <v>2.0738194826996903E-3</v>
+      </c>
+      <c r="F25" s="55">
+        <f t="shared" si="6"/>
+        <v>1.4943331116925584E-3</v>
+      </c>
+      <c r="G25" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H25" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="55">
+        <f t="shared" si="1"/>
+        <v>2.6600834620211509</v>
+      </c>
+      <c r="B26" s="55">
+        <f t="shared" si="2"/>
+        <v>-2.3442348728987654</v>
+      </c>
+      <c r="C26" s="55">
+        <f t="shared" si="3"/>
+        <v>2.250373598151306</v>
+      </c>
+      <c r="D26" s="55">
+        <f t="shared" si="4"/>
+        <v>1.3985158632134898E-3</v>
+      </c>
+      <c r="E26" s="55">
+        <f t="shared" si="5"/>
+        <v>1.4254264514788062E-3</v>
+      </c>
+      <c r="F26" s="55">
+        <f t="shared" si="6"/>
+        <v>1.0271497923994843E-3</v>
+      </c>
+      <c r="G26" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>---</v>
+      </c>
+      <c r="H26" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="56">
+        <f t="shared" si="1"/>
+        <v>2.6610447271066238</v>
+      </c>
+      <c r="B27" s="56">
+        <f t="shared" si="2"/>
+        <v>-2.34521461974937</v>
+      </c>
+      <c r="C27" s="56">
+        <f t="shared" si="3"/>
+        <v>2.2510795837299789</v>
+      </c>
+      <c r="D27" s="55">
+        <f t="shared" si="4"/>
+        <v>9.6126508547289546E-4</v>
+      </c>
+      <c r="E27" s="55">
+        <f t="shared" si="5"/>
+        <v>9.7974685060453481E-4</v>
+      </c>
+      <c r="F27" s="55">
+        <f t="shared" si="6"/>
+        <v>7.0598557867285194E-4</v>
+      </c>
+      <c r="G27" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Выполнено</v>
+      </c>
+      <c r="H27" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="51">
+        <v>7</v>
+      </c>
+      <c r="B3" s="51">
+        <v>4</v>
+      </c>
+      <c r="C3" s="51">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="51">
+        <v>2</v>
+      </c>
+      <c r="B4" s="51">
+        <v>6</v>
+      </c>
+      <c r="C4" s="51">
+        <v>3</v>
+      </c>
+      <c r="D4" s="52">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="51">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="51">
+        <v>1</v>
+      </c>
+      <c r="C5" s="51">
+        <v>4</v>
+      </c>
+      <c r="D5" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="F6" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="54">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="17">
+        <v>0</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="55">
+        <f>($A$3-$B$3*B8+C8)/$D$3</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="55">
+        <f>($D$4-$A$4*A9-3*C8)/$B$4</f>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="C9" s="55">
+        <f>($D$5+A9-B9)/$C$5</f>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="D9" s="55">
+        <f>ABS(A9-A8)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="55">
+        <f>ABS(B9-B8)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F9" s="55">
+        <f>ABS(C9-C8)</f>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="G9" s="17" t="str">
+        <f>IF(AND(D9&lt;$G$7, E9&lt;$G$7, F9&lt;$G$7), "Выполнено", "---")</f>
+        <v>---</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="55">
+        <f t="shared" ref="A10:A17" si="0">($A$3-$B$3*B9+C9)/$D$3</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="B10" s="55">
+        <f t="shared" ref="B10:B17" si="1">($D$4-$A$4*A10-3*C9)/$B$4</f>
+        <v>-1.5694444444444444</v>
+      </c>
+      <c r="C10" s="55">
+        <f t="shared" ref="C10:C17" si="2">($D$5+A10-B10)/$C$5</f>
+        <v>1.7881944444444444</v>
+      </c>
+      <c r="D10" s="55">
+        <f t="shared" ref="D10:D17" si="3">ABS(A10-A9)</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="E10" s="55">
+        <f t="shared" ref="E10:E17" si="4">ABS(B10-B9)</f>
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="F10" s="55">
+        <f t="shared" ref="F10:F17" si="5">ABS(C10-C9)</f>
+        <v>0.37152777777777768</v>
+      </c>
+      <c r="G10" s="17" t="str">
+        <f t="shared" ref="G10:G17" si="6">IF(AND(D10&lt;$G$7, E10&lt;$G$7, F10&lt;$G$7), "Выполнено", "---")</f>
+        <v>---</v>
+      </c>
+      <c r="H10" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="55">
+        <f t="shared" si="0"/>
+        <v>2.152281746031746</v>
+      </c>
+      <c r="B11" s="55">
+        <f t="shared" si="1"/>
+        <v>-1.9448578042328044</v>
+      </c>
+      <c r="C11" s="55">
+        <f t="shared" si="2"/>
+        <v>2.0242848875661377</v>
+      </c>
+      <c r="D11" s="55">
+        <f t="shared" si="3"/>
+        <v>0.56894841269841279</v>
+      </c>
+      <c r="E11" s="55">
+        <f t="shared" si="4"/>
+        <v>0.37541335978835999</v>
+      </c>
+      <c r="F11" s="55">
+        <f t="shared" si="5"/>
+        <v>0.23609044312169325</v>
+      </c>
+      <c r="G11" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="H11" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="55">
+        <f t="shared" si="0"/>
+        <v>2.4005308720710508</v>
+      </c>
+      <c r="B12" s="55">
+        <f t="shared" si="1"/>
+        <v>-2.1456527344734191</v>
+      </c>
+      <c r="C12" s="55">
+        <f t="shared" si="2"/>
+        <v>2.1365459016361177</v>
+      </c>
+      <c r="D12" s="55">
+        <f t="shared" si="3"/>
+        <v>0.24824912603930471</v>
+      </c>
+      <c r="E12" s="55">
+        <f t="shared" si="4"/>
+        <v>0.20079493024061468</v>
+      </c>
+      <c r="F12" s="55">
+        <f t="shared" si="5"/>
+        <v>0.11226101406998001</v>
+      </c>
+      <c r="G12" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="H12" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="55">
+        <f t="shared" si="0"/>
+        <v>2.5313081199328278</v>
+      </c>
+      <c r="B13" s="55">
+        <f t="shared" si="1"/>
+        <v>-2.2453756574623349</v>
+      </c>
+      <c r="C13" s="55">
+        <f t="shared" si="2"/>
+        <v>2.1941709443487905</v>
+      </c>
+      <c r="D13" s="55">
+        <f t="shared" si="3"/>
+        <v>0.13077724786177702</v>
+      </c>
+      <c r="E13" s="55">
+        <f t="shared" si="4"/>
+        <v>9.972292298891583E-2</v>
+      </c>
+      <c r="F13" s="55">
+        <f t="shared" si="5"/>
+        <v>5.7625042712672769E-2</v>
+      </c>
+      <c r="G13" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="H13" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="55">
+        <f t="shared" si="0"/>
+        <v>2.5965247963140183</v>
+      </c>
+      <c r="B14" s="55">
+        <f t="shared" si="1"/>
+        <v>-2.2959270709457349</v>
+      </c>
+      <c r="C14" s="55">
+        <f t="shared" si="2"/>
+        <v>2.2231129668149383</v>
+      </c>
+      <c r="D14" s="55">
+        <f t="shared" si="3"/>
+        <v>6.5216676381190553E-2</v>
+      </c>
+      <c r="E14" s="55">
+        <f t="shared" si="4"/>
+        <v>5.0551413483399976E-2</v>
+      </c>
+      <c r="F14" s="55">
+        <f t="shared" si="5"/>
+        <v>2.8942022466147854E-2</v>
+      </c>
+      <c r="G14" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="H14" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="55">
+        <f t="shared" si="0"/>
+        <v>2.6295458929425544</v>
+      </c>
+      <c r="B15" s="55">
+        <f t="shared" si="1"/>
+        <v>-2.321405114388321</v>
+      </c>
+      <c r="C15" s="55">
+        <f t="shared" si="2"/>
+        <v>2.2377377518327188</v>
+      </c>
+      <c r="D15" s="55">
+        <f t="shared" si="3"/>
+        <v>3.3021096628536029E-2</v>
+      </c>
+      <c r="E15" s="55">
+        <f t="shared" si="4"/>
+        <v>2.5478043442586085E-2</v>
+      </c>
+      <c r="F15" s="55">
+        <f t="shared" si="5"/>
+        <v>1.4624785017780528E-2</v>
+      </c>
+      <c r="G15" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="H15" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="55">
+        <f t="shared" si="0"/>
+        <v>2.6461940299122864</v>
+      </c>
+      <c r="B16" s="55">
+        <f t="shared" si="1"/>
+        <v>-2.3342668858871214</v>
+      </c>
+      <c r="C16" s="55">
+        <f t="shared" si="2"/>
+        <v>2.2451152289498522</v>
+      </c>
+      <c r="D16" s="55">
+        <f t="shared" si="3"/>
+        <v>1.6648136969731997E-2</v>
+      </c>
+      <c r="E16" s="55">
+        <f t="shared" si="4"/>
+        <v>1.2861771498800412E-2</v>
+      </c>
+      <c r="F16" s="55">
+        <f t="shared" si="5"/>
+        <v>7.3774771171333242E-3</v>
+      </c>
+      <c r="G16" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="H16" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="55">
+        <f t="shared" si="0"/>
+        <v>2.6545975389283343</v>
+      </c>
+      <c r="B17" s="55">
+        <f t="shared" si="1"/>
+        <v>-2.3407567941177043</v>
+      </c>
+      <c r="C17" s="55">
+        <f t="shared" si="2"/>
+        <v>2.2488385832615094</v>
+      </c>
+      <c r="D17" s="55">
+        <f t="shared" si="3"/>
+        <v>8.4035090160479164E-3</v>
+      </c>
+      <c r="E17" s="55">
+        <f t="shared" si="4"/>
+        <v>6.4899082305829303E-3</v>
+      </c>
+      <c r="F17" s="55">
+        <f t="shared" si="5"/>
+        <v>3.7233543116572676E-3</v>
+      </c>
+      <c r="G17" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v>Выполнено</v>
+      </c>
+      <c r="H17" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Решение уравнений пример 1-2-3- 4 метода.xlsx
+++ b/Решение уравнений пример 1-2-3- 4 метода.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="679" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="679" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="отделение корня" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,12 +428,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,6 +630,17 @@
     <xf numFmtId="165" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,19 +677,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2344,7 +2336,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="44" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="23">
@@ -2364,7 +2356,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="40"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="23">
         <v>1.3</v>
       </c>
@@ -2382,7 +2374,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="40"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="23">
         <v>6.2</v>
       </c>
@@ -2400,7 +2392,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="40"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="23">
         <v>1.2</v>
       </c>
@@ -2418,7 +2410,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="26" customFormat="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="31">
         <f>B2/$B$2</f>
         <v>1</v>
@@ -2441,7 +2433,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="26" customFormat="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="43" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="27"/>
@@ -2463,7 +2455,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="26" customFormat="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27">
         <f t="shared" ref="C8:C9" si="1">C4-B4*C$6</f>
@@ -2483,7 +2475,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="26" customFormat="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27">
         <f t="shared" si="1"/>
@@ -2503,7 +2495,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="26" customFormat="1">
-      <c r="A10" s="38"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="27"/>
       <c r="C10" s="31">
         <f>C7/C7</f>
@@ -2523,7 +2515,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="26" customFormat="1">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="43" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="27"/>
@@ -2542,7 +2534,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="26" customFormat="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27">
@@ -2559,7 +2551,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="26" customFormat="1">
-      <c r="A13" s="38"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="31">
@@ -2576,7 +2568,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="26" customFormat="1">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="43" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="27"/>
@@ -2592,7 +2584,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="26" customFormat="1">
-      <c r="A15" s="38"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -2606,15 +2598,15 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="26" customFormat="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" s="26" customFormat="1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="43" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="27"/>
@@ -2629,7 +2621,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="26" customFormat="1">
-      <c r="A18" s="38"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="33">
@@ -2642,7 +2634,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="26" customFormat="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="27"/>
       <c r="C19" s="33">
         <v>1</v>
@@ -2655,7 +2647,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="26" customFormat="1">
-      <c r="A20" s="38"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="33">
         <v>1</v>
       </c>
@@ -2685,7 +2677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -2732,7 +2724,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="44" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="23">
@@ -2750,7 +2742,7 @@
       <c r="F2" s="23">
         <v>6</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="44" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="23">
@@ -2767,7 +2759,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="40"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="23">
         <v>26</v>
       </c>
@@ -2783,7 +2775,7 @@
       <c r="F3" s="23">
         <v>10</v>
       </c>
-      <c r="H3" s="40"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="23">
         <v>26</v>
       </c>
@@ -2798,7 +2790,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="40"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="23">
         <v>32</v>
       </c>
@@ -2814,7 +2806,7 @@
       <c r="F4" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="23">
         <v>32</v>
       </c>
@@ -2829,7 +2821,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="40"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="23">
         <v>1.2</v>
       </c>
@@ -2845,14 +2837,14 @@
       <c r="F5" s="23">
         <v>1.6</v>
       </c>
-      <c r="H5" s="40"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="41"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="31">
         <f>B2/$B$2</f>
         <v>1</v>
@@ -2873,7 +2865,7 @@
         <f t="shared" si="0"/>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="H6" s="41"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="31">
         <f>I2/$I$2</f>
         <v>1</v>
@@ -2892,7 +2884,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="43" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="27"/>
@@ -2912,7 +2904,7 @@
         <f>F3-B3*F6</f>
         <v>8.9803921568627452</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="43" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="27"/>
@@ -2930,7 +2922,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="38"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27">
         <f t="shared" ref="C8:C9" si="3">C4-B4*C$6</f>
@@ -2948,7 +2940,7 @@
         <f>F4-B4*F6</f>
         <v>-0.15490196078431362</v>
       </c>
-      <c r="H8" s="38"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="27"/>
       <c r="J8" s="30">
         <f>J4-$I4*J$6</f>
@@ -2964,7 +2956,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="38"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27">
         <f t="shared" si="3"/>
@@ -2982,14 +2974,14 @@
         <f>F5-B5*F6</f>
         <v>1.5529411764705883</v>
       </c>
-      <c r="H9" s="38"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="38"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="27"/>
       <c r="C10" s="31">
         <f>C7/C7</f>
@@ -3007,7 +2999,7 @@
         <f t="shared" si="6"/>
         <v>-8.4757263586453635E-2</v>
       </c>
-      <c r="H10" s="38"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="27"/>
       <c r="J10" s="31">
         <f>J7/J7</f>
@@ -3023,7 +3015,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="43" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="27"/>
@@ -3040,7 +3032,7 @@
         <f>F8-C8*F10</f>
         <v>-3.6642958484979329</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="43" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="27"/>
@@ -3055,7 +3047,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="38"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27">
@@ -3070,14 +3062,14 @@
         <f t="shared" si="7"/>
         <v>1.7063352044907778</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="38"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="31">
@@ -3092,7 +3084,7 @@
         <f>F11/D11</f>
         <v>-4.1764119019713566E-2</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
       <c r="K13" s="31">
@@ -3105,7 +3097,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="48" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="27"/>
@@ -3126,7 +3118,7 @@
       <c r="L14" s="37"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="45"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -3138,7 +3130,7 @@
         <f>F14/E14</f>
         <v>0.19644650515286571</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="48" t="s">
         <v>39</v>
       </c>
       <c r="I15" s="27"/>
@@ -3152,13 +3144,13 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="H16" s="44"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="H16" s="49"/>
       <c r="I16" s="27"/>
       <c r="J16" s="33">
         <v>1</v>
@@ -3170,7 +3162,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="48" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="27"/>
@@ -3183,7 +3175,7 @@
         <f>F15</f>
         <v>0.19644650515286571</v>
       </c>
-      <c r="H17" s="44"/>
+      <c r="H17" s="49"/>
       <c r="I17" s="33">
         <v>1</v>
       </c>
@@ -3195,7 +3187,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="44"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="33">
@@ -3206,10 +3198,10 @@
         <f>F13-E13*F17</f>
         <v>0.15234475505340678</v>
       </c>
-      <c r="H18" s="45"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="44"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="27"/>
       <c r="C19" s="33">
         <v>1</v>
@@ -3222,7 +3214,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="45"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="33">
         <v>1</v>
       </c>
@@ -3253,67 +3245,70 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H34"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="51">
-        <v>7</v>
-      </c>
-      <c r="B3" s="51">
-        <v>4</v>
-      </c>
-      <c r="C3" s="51">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="52">
-        <v>7</v>
+      <c r="A3" s="39">
+        <v>153</v>
+      </c>
+      <c r="B3" s="39">
+        <v>-65</v>
+      </c>
+      <c r="C3" s="39">
+        <v>-67</v>
+      </c>
+      <c r="D3" s="40">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="51">
-        <v>2</v>
-      </c>
-      <c r="B4" s="51">
-        <v>6</v>
-      </c>
-      <c r="C4" s="51">
-        <v>3</v>
-      </c>
-      <c r="D4" s="52">
-        <v>-2</v>
+      <c r="A4" s="39">
+        <v>26</v>
+      </c>
+      <c r="B4" s="39">
+        <v>-117</v>
+      </c>
+      <c r="C4" s="39">
+        <v>84</v>
+      </c>
+      <c r="D4" s="40">
+        <v>-47</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="51">
-        <v>-1</v>
-      </c>
-      <c r="B5" s="51">
-        <v>1</v>
-      </c>
-      <c r="C5" s="51">
-        <v>4</v>
-      </c>
-      <c r="D5" s="52">
-        <v>4</v>
+      <c r="A5" s="39">
+        <v>32</v>
+      </c>
+      <c r="B5" s="39">
+        <v>-55</v>
+      </c>
+      <c r="C5" s="39">
+        <v>111</v>
+      </c>
+      <c r="D5" s="40">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3333,11 +3328,11 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="54">
-        <v>1E-3</v>
+      <c r="G7" s="41">
+        <v>0.01</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>47</v>
@@ -3368,29 +3363,29 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="55">
-        <f>($A$3-$B$3*B8+C8)/7</f>
-        <v>1</v>
-      </c>
-      <c r="B9" s="55">
-        <f>($D$4-$A$4*A8-3*C8)/$B$4</f>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="C9" s="55">
-        <f>($D$5+A8-B8)/$C$5</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="55">
+      <c r="A9" s="42">
+        <f>($D$3-$B$3*B8-$C$3*C8)/$A$3</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="B9" s="42">
+        <f>($D$4-$A$4*A8-$C$4*C8)/$B$4</f>
+        <v>0.40170940170940173</v>
+      </c>
+      <c r="C9" s="42">
+        <f>($D$5-$A$5*A8-$B$5*B8)/$C$5</f>
+        <v>0.85585585585585588</v>
+      </c>
+      <c r="D9" s="42">
         <f>ABS(A9-A8)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="55">
-        <f t="shared" ref="E9:F9" si="0">ABS(B9-B8)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F9" s="55">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="E9" s="42">
+        <f>ABS(B9-B8)</f>
+        <v>0.40170940170940173</v>
+      </c>
+      <c r="F9" s="42">
+        <f>ABS(C9-C8)</f>
+        <v>0.85585585585585588</v>
       </c>
       <c r="G9" s="17" t="str">
         <f>IF(AND(D9&lt;$G$7, E9&lt;$G$7, F9&lt;$G$7), "Выполнено", "---")</f>
@@ -3401,32 +3396,32 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="55">
-        <f t="shared" ref="A10:A34" si="1">($A$3-$B$3*B9+C9)/7</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="B10" s="55">
-        <f t="shared" ref="B10:B34" si="2">($D$4-$A$4*A9-3*C9)/$B$4</f>
-        <v>-1.1666666666666667</v>
-      </c>
-      <c r="C10" s="55">
-        <f t="shared" ref="C10:C34" si="3">($D$5+A9-B9)/$C$5</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="D10" s="55">
-        <f t="shared" ref="D10:D34" si="4">ABS(A10-A9)</f>
-        <v>0.33333333333333348</v>
-      </c>
-      <c r="E10" s="55">
-        <f t="shared" ref="E10:E34" si="5">ABS(B10-B9)</f>
-        <v>0.83333333333333348</v>
-      </c>
-      <c r="F10" s="55">
-        <f t="shared" ref="F10:F34" si="6">ABS(C10-C9)</f>
-        <v>0.33333333333333326</v>
+      <c r="A10" s="42">
+        <f>($D$3-$B$3*B9-$C$3*C9)/$A$3</f>
+        <v>0.66309446701603558</v>
+      </c>
+      <c r="B10" s="42">
+        <f>($D$4-$A$4*A9-$C$4*C9)/$B$4</f>
+        <v>1.0423138070196893</v>
+      </c>
+      <c r="C10" s="42">
+        <f>($D$5-$A$5*A9-$B$5*B9)/$C$5</f>
+        <v>1.020984785690668</v>
+      </c>
+      <c r="D10" s="42">
+        <f t="shared" ref="D10:D17" si="0">ABS(A10-A9)</f>
+        <v>0.54544740819250614</v>
+      </c>
+      <c r="E10" s="42">
+        <f t="shared" ref="E10:E17" si="1">ABS(B10-B9)</f>
+        <v>0.64060440531028762</v>
+      </c>
+      <c r="F10" s="42">
+        <f t="shared" ref="F10:F17" si="2">ABS(C10-C9)</f>
+        <v>0.16512892983481209</v>
       </c>
       <c r="G10" s="17" t="str">
-        <f t="shared" ref="G10:G34" si="7">IF(AND(D10&lt;$G$7, E10&lt;$G$7, F10&lt;$G$7), "Выполнено", "---")</f>
+        <f t="shared" ref="G10:G17" si="3">IF(AND(D10&lt;$G$7, E10&lt;$G$7, F10&lt;$G$7), "Выполнено", "---")</f>
         <v>---</v>
       </c>
       <c r="H10" s="17">
@@ -3434,32 +3429,32 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="55">
+      <c r="A11" s="42">
+        <f>($D$3-$B$3*B10-$C$3*C10)/$A$3</f>
+        <v>1.0075580267814024</v>
+      </c>
+      <c r="B11" s="42">
+        <f>($D$4-$A$4*A10-$C$4*C10)/$B$4</f>
+        <v>1.2820784456447267</v>
+      </c>
+      <c r="C11" s="42">
+        <f>($D$5-$A$5*A10-$B$5*B10)/$C$5</f>
+        <v>1.1811552832573853</v>
+      </c>
+      <c r="D11" s="42">
+        <f t="shared" si="0"/>
+        <v>0.3444635597653668</v>
+      </c>
+      <c r="E11" s="42">
         <f t="shared" si="1"/>
-        <v>1.8571428571428574</v>
-      </c>
-      <c r="B11" s="55">
+        <v>0.23976463862503739</v>
+      </c>
+      <c r="F11" s="42">
         <f t="shared" si="2"/>
-        <v>-1.4444444444444446</v>
-      </c>
-      <c r="C11" s="55">
+        <v>0.16017049756671731</v>
+      </c>
+      <c r="G11" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>1.6250000000000002</v>
-      </c>
-      <c r="D11" s="55">
-        <f t="shared" si="4"/>
-        <v>0.52380952380952395</v>
-      </c>
-      <c r="E11" s="55">
-        <f t="shared" si="5"/>
-        <v>0.2777777777777779</v>
-      </c>
-      <c r="F11" s="55">
-        <f t="shared" si="6"/>
-        <v>0.29166666666666696</v>
-      </c>
-      <c r="G11" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>---</v>
       </c>
       <c r="H11" s="17">
@@ -3467,32 +3462,32 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="55">
+      <c r="A12" s="42">
+        <f>($D$3-$B$3*B11-$C$3*C11)/$A$3</f>
+        <v>1.1795588427787715</v>
+      </c>
+      <c r="B12" s="42">
+        <f>($D$4-$A$4*A11-$C$4*C11)/$B$4</f>
+        <v>1.4736201067515968</v>
+      </c>
+      <c r="C12" s="42">
+        <f>($D$5-$A$5*A11-$B$5*B11)/$C$5</f>
+        <v>1.2006527716527486</v>
+      </c>
+      <c r="D12" s="42">
+        <f t="shared" si="0"/>
+        <v>0.17200081599736916</v>
+      </c>
+      <c r="E12" s="42">
         <f t="shared" si="1"/>
-        <v>2.0575396825396828</v>
-      </c>
-      <c r="B12" s="55">
+        <v>0.1915416611068701</v>
+      </c>
+      <c r="F12" s="42">
         <f t="shared" si="2"/>
-        <v>-1.7648809523809526</v>
-      </c>
-      <c r="C12" s="55">
+        <v>1.949748839536336E-2</v>
+      </c>
+      <c r="G12" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>1.8253968253968256</v>
-      </c>
-      <c r="D12" s="55">
-        <f t="shared" si="4"/>
-        <v>0.20039682539682535</v>
-      </c>
-      <c r="E12" s="55">
-        <f t="shared" si="5"/>
-        <v>0.32043650793650791</v>
-      </c>
-      <c r="F12" s="55">
-        <f t="shared" si="6"/>
-        <v>0.20039682539682535</v>
-      </c>
-      <c r="G12" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>---</v>
       </c>
       <c r="H12" s="17">
@@ -3500,32 +3495,32 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="55">
+      <c r="A13" s="42">
+        <f>($D$3-$B$3*B12-$C$3*C12)/$A$3</f>
+        <v>1.2694708669254113</v>
+      </c>
+      <c r="B13" s="42">
+        <f>($D$4-$A$4*A12-$C$4*C12)/$B$4</f>
+        <v>1.5258407071032389</v>
+      </c>
+      <c r="C13" s="42">
+        <f>($D$5-$A$5*A12-$B$5*B12)/$C$5</f>
+        <v>1.2459749811028571</v>
+      </c>
+      <c r="D13" s="42">
+        <f t="shared" si="0"/>
+        <v>8.9912024146639791E-2</v>
+      </c>
+      <c r="E13" s="42">
         <f t="shared" si="1"/>
-        <v>2.2692743764172336</v>
-      </c>
-      <c r="B13" s="55">
+        <v>5.222060035164211E-2</v>
+      </c>
+      <c r="F13" s="42">
         <f t="shared" si="2"/>
-        <v>-1.931878306878307</v>
-      </c>
-      <c r="C13" s="55">
+        <v>4.5322209450108453E-2</v>
+      </c>
+      <c r="G13" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>1.9556051587301588</v>
-      </c>
-      <c r="D13" s="55">
-        <f t="shared" si="4"/>
-        <v>0.21173469387755084</v>
-      </c>
-      <c r="E13" s="55">
-        <f t="shared" si="5"/>
-        <v>0.16699735449735442</v>
-      </c>
-      <c r="F13" s="55">
-        <f t="shared" si="6"/>
-        <v>0.13020833333333326</v>
-      </c>
-      <c r="G13" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>---</v>
       </c>
       <c r="H13" s="17">
@@ -3533,32 +3528,32 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="55">
+      <c r="A14" s="42">
+        <f>($D$3-$B$3*B13-$C$3*C13)/$A$3</f>
+        <v>1.3115030699058952</v>
+      </c>
+      <c r="B14" s="42">
+        <f>($D$4-$A$4*A13-$C$4*C13)/$B$4</f>
+        <v>1.578360179082912</v>
+      </c>
+      <c r="C14" s="42">
+        <f>($D$5-$A$5*A13-$B$5*B13)/$C$5</f>
+        <v>1.2459294698113963</v>
+      </c>
+      <c r="D14" s="42">
+        <f t="shared" si="0"/>
+        <v>4.2032202980483824E-2</v>
+      </c>
+      <c r="E14" s="42">
         <f t="shared" si="1"/>
-        <v>2.3833026266061981</v>
-      </c>
-      <c r="B14" s="55">
+        <v>5.2519471979673105E-2</v>
+      </c>
+      <c r="F14" s="42">
         <f t="shared" si="2"/>
-        <v>-2.0675607048374904</v>
-      </c>
-      <c r="C14" s="55">
+        <v>4.551129146079802E-5</v>
+      </c>
+      <c r="G14" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>2.0502881708238849</v>
-      </c>
-      <c r="D14" s="55">
-        <f t="shared" si="4"/>
-        <v>0.11402825018896445</v>
-      </c>
-      <c r="E14" s="55">
-        <f t="shared" si="5"/>
-        <v>0.13568239795918347</v>
-      </c>
-      <c r="F14" s="55">
-        <f t="shared" si="6"/>
-        <v>9.4683012093726093E-2</v>
-      </c>
-      <c r="G14" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>---</v>
       </c>
       <c r="H14" s="17">
@@ -3566,32 +3561,32 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="55">
+      <c r="A15" s="42">
+        <f>($D$3-$B$3*B14-$C$3*C14)/$A$3</f>
+        <v>1.3337953341029596</v>
+      </c>
+      <c r="B15" s="42">
+        <f>($D$4-$A$4*A14-$C$4*C14)/$B$4</f>
+        <v>1.5876679938607741</v>
+      </c>
+      <c r="C15" s="42">
+        <f>($D$5-$A$5*A14-$B$5*B14)/$C$5</f>
+        <v>1.2598352397528965</v>
+      </c>
+      <c r="D15" s="42">
+        <f t="shared" si="0"/>
+        <v>2.2292264197064426E-2</v>
+      </c>
+      <c r="E15" s="42">
         <f t="shared" si="1"/>
-        <v>2.4743615700248354</v>
-      </c>
-      <c r="B15" s="55">
+        <v>9.3078147778620224E-3</v>
+      </c>
+      <c r="F15" s="42">
         <f t="shared" si="2"/>
-        <v>-2.1529116276140083</v>
-      </c>
-      <c r="C15" s="55">
+        <v>1.3905769941500168E-2</v>
+      </c>
+      <c r="G15" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>2.1127158328609221</v>
-      </c>
-      <c r="D15" s="55">
-        <f t="shared" si="4"/>
-        <v>9.1058943418637295E-2</v>
-      </c>
-      <c r="E15" s="55">
-        <f t="shared" si="5"/>
-        <v>8.5350922776517901E-2</v>
-      </c>
-      <c r="F15" s="55">
-        <f t="shared" si="6"/>
-        <v>6.2427662037037202E-2</v>
-      </c>
-      <c r="G15" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>---</v>
       </c>
       <c r="H15" s="17">
@@ -3599,32 +3594,32 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="55">
+      <c r="A16" s="42">
+        <f>($D$3-$B$3*B15-$C$3*C15)/$A$3</f>
+        <v>1.3438390893097671</v>
+      </c>
+      <c r="B16" s="42">
+        <f>($D$4-$A$4*A15-$C$4*C15)/$B$4</f>
+        <v>1.6026054600506003</v>
+      </c>
+      <c r="C16" s="42">
+        <f>($D$5-$A$5*A15-$B$5*B15)/$C$5</f>
+        <v>1.2580206213607916</v>
+      </c>
+      <c r="D16" s="42">
+        <f t="shared" si="0"/>
+        <v>1.0043755206807559E-2</v>
+      </c>
+      <c r="E16" s="42">
         <f t="shared" si="1"/>
-        <v>2.5320517633309936</v>
-      </c>
-      <c r="B16" s="55">
+        <v>1.4937466189826276E-2</v>
+      </c>
+      <c r="F16" s="42">
         <f t="shared" si="2"/>
-        <v>-2.2144784397720727</v>
-      </c>
-      <c r="C16" s="55">
+        <v>1.8146183921048387E-3</v>
+      </c>
+      <c r="G16" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>2.1568182994097107</v>
-      </c>
-      <c r="D16" s="55">
-        <f t="shared" si="4"/>
-        <v>5.7690193306158211E-2</v>
-      </c>
-      <c r="E16" s="55">
-        <f t="shared" si="5"/>
-        <v>6.1566812158064366E-2</v>
-      </c>
-      <c r="F16" s="55">
-        <f t="shared" si="6"/>
-        <v>4.4102466548788577E-2</v>
-      </c>
-      <c r="G16" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>---</v>
       </c>
       <c r="H16" s="17">
@@ -3632,423 +3627,37 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="55">
+      <c r="A17" s="42">
+        <f>($D$3-$B$3*B16-$C$3*C16)/$A$3</f>
+        <v>1.349390434865765</v>
+      </c>
+      <c r="B17" s="42">
+        <f>($D$4-$A$4*A16-$C$4*C16)/$B$4</f>
+        <v>1.6035346027039352</v>
+      </c>
+      <c r="C17" s="42">
+        <f>($D$5-$A$5*A16-$B$5*B16)/$C$5</f>
+        <v>1.2625265715754095</v>
+      </c>
+      <c r="D17" s="42">
+        <f t="shared" si="0"/>
+        <v>5.5513455559978997E-3</v>
+      </c>
+      <c r="E17" s="42">
         <f t="shared" si="1"/>
-        <v>2.5735331512140003</v>
-      </c>
-      <c r="B17" s="55">
+        <v>9.2914265333488011E-4</v>
+      </c>
+      <c r="F17" s="42">
         <f t="shared" si="2"/>
-        <v>-2.2557597374818532</v>
-      </c>
-      <c r="C17" s="55">
+        <v>4.5059502146178598E-3</v>
+      </c>
+      <c r="G17" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>2.1866325507757667</v>
-      </c>
-      <c r="D17" s="55">
-        <f t="shared" si="4"/>
-        <v>4.1481387883006704E-2</v>
-      </c>
-      <c r="E17" s="55">
-        <f t="shared" si="5"/>
-        <v>4.1281297709780507E-2</v>
-      </c>
-      <c r="F17" s="55">
-        <f t="shared" si="6"/>
-        <v>2.9814251366055977E-2</v>
-      </c>
-      <c r="G17" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>---</v>
+        <v>Выполнено</v>
       </c>
       <c r="H17" s="17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="55">
-        <f t="shared" si="1"/>
-        <v>2.6013816429575969</v>
-      </c>
-      <c r="B18" s="55">
-        <f t="shared" si="2"/>
-        <v>-2.2844939924592169</v>
-      </c>
-      <c r="C18" s="55">
-        <f t="shared" si="3"/>
-        <v>2.2073232221739634</v>
-      </c>
-      <c r="D18" s="55">
-        <f t="shared" si="4"/>
-        <v>2.7848491743596604E-2</v>
-      </c>
-      <c r="E18" s="55">
-        <f t="shared" si="5"/>
-        <v>2.8734254977363705E-2</v>
-      </c>
-      <c r="F18" s="55">
-        <f t="shared" si="6"/>
-        <v>2.0690671398196692E-2</v>
-      </c>
-      <c r="G18" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>---</v>
-      </c>
-      <c r="H18" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="55">
-        <f t="shared" si="1"/>
-        <v>2.6207570274301184</v>
-      </c>
-      <c r="B19" s="55">
-        <f t="shared" si="2"/>
-        <v>-2.304122158739514</v>
-      </c>
-      <c r="C19" s="55">
-        <f t="shared" si="3"/>
-        <v>2.2214689088542032</v>
-      </c>
-      <c r="D19" s="55">
-        <f t="shared" si="4"/>
-        <v>1.9375384472521517E-2</v>
-      </c>
-      <c r="E19" s="55">
-        <f t="shared" si="5"/>
-        <v>1.9628166280297066E-2</v>
-      </c>
-      <c r="F19" s="55">
-        <f t="shared" si="6"/>
-        <v>1.4145686680239855E-2</v>
-      </c>
-      <c r="G19" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>---</v>
-      </c>
-      <c r="H19" s="17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="55">
-        <f t="shared" si="1"/>
-        <v>2.6339939348303223</v>
-      </c>
-      <c r="B20" s="55">
-        <f t="shared" si="2"/>
-        <v>-2.3176534635704744</v>
-      </c>
-      <c r="C20" s="55">
-        <f t="shared" si="3"/>
-        <v>2.2312197965424079</v>
-      </c>
-      <c r="D20" s="55">
-        <f t="shared" si="4"/>
-        <v>1.323690740020389E-2</v>
-      </c>
-      <c r="E20" s="55">
-        <f t="shared" si="5"/>
-        <v>1.3531304830960433E-2</v>
-      </c>
-      <c r="F20" s="55">
-        <f t="shared" si="6"/>
-        <v>9.7508876882046458E-3</v>
-      </c>
-      <c r="G20" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>---</v>
-      </c>
-      <c r="H20" s="17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="55">
-        <f t="shared" si="1"/>
-        <v>2.6431190929749007</v>
-      </c>
-      <c r="B21" s="55">
-        <f t="shared" si="2"/>
-        <v>-2.3269412098813116</v>
-      </c>
-      <c r="C21" s="55">
-        <f t="shared" si="3"/>
-        <v>2.2379118496001991</v>
-      </c>
-      <c r="D21" s="55">
-        <f t="shared" si="4"/>
-        <v>9.1251581445783714E-3</v>
-      </c>
-      <c r="E21" s="55">
-        <f t="shared" si="5"/>
-        <v>9.2877463108371749E-3</v>
-      </c>
-      <c r="F21" s="55">
-        <f t="shared" si="6"/>
-        <v>6.6920530577911919E-3</v>
-      </c>
-      <c r="G21" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>---</v>
-      </c>
-      <c r="H21" s="17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="55">
-        <f t="shared" si="1"/>
-        <v>2.649382384160778</v>
-      </c>
-      <c r="B22" s="55">
-        <f t="shared" si="2"/>
-        <v>-2.3333289557917332</v>
-      </c>
-      <c r="C22" s="55">
-        <f t="shared" si="3"/>
-        <v>2.2425150757140533</v>
-      </c>
-      <c r="D22" s="55">
-        <f t="shared" si="4"/>
-        <v>6.2632911858773177E-3</v>
-      </c>
-      <c r="E22" s="55">
-        <f t="shared" si="5"/>
-        <v>6.3877459104215717E-3</v>
-      </c>
-      <c r="F22" s="55">
-        <f t="shared" si="6"/>
-        <v>4.6032261138542196E-3</v>
-      </c>
-      <c r="G22" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>---</v>
-      </c>
-      <c r="H22" s="17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="55">
-        <f t="shared" si="1"/>
-        <v>2.6536901284115695</v>
-      </c>
-      <c r="B23" s="55">
-        <f t="shared" si="2"/>
-        <v>-2.3377183325772859</v>
-      </c>
-      <c r="C23" s="55">
-        <f t="shared" si="3"/>
-        <v>2.2456778349881277</v>
-      </c>
-      <c r="D23" s="55">
-        <f t="shared" si="4"/>
-        <v>4.3077442507915009E-3</v>
-      </c>
-      <c r="E23" s="55">
-        <f t="shared" si="5"/>
-        <v>4.3893767855527344E-3</v>
-      </c>
-      <c r="F23" s="55">
-        <f t="shared" si="6"/>
-        <v>3.1627592740743893E-3</v>
-      </c>
-      <c r="G23" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>---</v>
-      </c>
-      <c r="H23" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="55">
-        <f t="shared" si="1"/>
-        <v>2.6566501664710387</v>
-      </c>
-      <c r="B24" s="55">
-        <f t="shared" si="2"/>
-        <v>-2.3407356269645869</v>
-      </c>
-      <c r="C24" s="55">
-        <f t="shared" si="3"/>
-        <v>2.247852115247214</v>
-      </c>
-      <c r="D24" s="55">
-        <f t="shared" si="4"/>
-        <v>2.9600380594692055E-3</v>
-      </c>
-      <c r="E24" s="55">
-        <f t="shared" si="5"/>
-        <v>3.0172943873010283E-3</v>
-      </c>
-      <c r="F24" s="55">
-        <f t="shared" si="6"/>
-        <v>2.1742802590862809E-3</v>
-      </c>
-      <c r="G24" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>---</v>
-      </c>
-      <c r="H24" s="17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="55">
-        <f t="shared" si="1"/>
-        <v>2.6586849461579374</v>
-      </c>
-      <c r="B25" s="55">
-        <f t="shared" si="2"/>
-        <v>-2.3428094464472866</v>
-      </c>
-      <c r="C25" s="55">
-        <f t="shared" si="3"/>
-        <v>2.2493464483589065</v>
-      </c>
-      <c r="D25" s="55">
-        <f t="shared" si="4"/>
-        <v>2.0347796868986912E-3</v>
-      </c>
-      <c r="E25" s="55">
-        <f t="shared" si="5"/>
-        <v>2.0738194826996903E-3</v>
-      </c>
-      <c r="F25" s="55">
-        <f t="shared" si="6"/>
-        <v>1.4943331116925584E-3</v>
-      </c>
-      <c r="G25" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>---</v>
-      </c>
-      <c r="H25" s="17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="55">
-        <f t="shared" si="1"/>
-        <v>2.6600834620211509</v>
-      </c>
-      <c r="B26" s="55">
-        <f t="shared" si="2"/>
-        <v>-2.3442348728987654</v>
-      </c>
-      <c r="C26" s="55">
-        <f t="shared" si="3"/>
-        <v>2.250373598151306</v>
-      </c>
-      <c r="D26" s="55">
-        <f t="shared" si="4"/>
-        <v>1.3985158632134898E-3</v>
-      </c>
-      <c r="E26" s="55">
-        <f t="shared" si="5"/>
-        <v>1.4254264514788062E-3</v>
-      </c>
-      <c r="F26" s="55">
-        <f t="shared" si="6"/>
-        <v>1.0271497923994843E-3</v>
-      </c>
-      <c r="G26" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>---</v>
-      </c>
-      <c r="H26" s="17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="56">
-        <f t="shared" si="1"/>
-        <v>2.6610447271066238</v>
-      </c>
-      <c r="B27" s="56">
-        <f t="shared" si="2"/>
-        <v>-2.34521461974937</v>
-      </c>
-      <c r="C27" s="56">
-        <f t="shared" si="3"/>
-        <v>2.2510795837299789</v>
-      </c>
-      <c r="D27" s="55">
-        <f t="shared" si="4"/>
-        <v>9.6126508547289546E-4</v>
-      </c>
-      <c r="E27" s="55">
-        <f t="shared" si="5"/>
-        <v>9.7974685060453481E-4</v>
-      </c>
-      <c r="F27" s="55">
-        <f t="shared" si="6"/>
-        <v>7.0598557867285194E-4</v>
-      </c>
-      <c r="G27" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>Выполнено</v>
-      </c>
-      <c r="H27" s="17">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4060,10 +3669,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H34"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4072,55 +3681,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="51">
-        <v>7</v>
-      </c>
-      <c r="B3" s="51">
-        <v>4</v>
-      </c>
-      <c r="C3" s="51">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="52">
-        <v>7</v>
+      <c r="A3" s="39">
+        <v>153</v>
+      </c>
+      <c r="B3" s="39">
+        <v>-65</v>
+      </c>
+      <c r="C3" s="39">
+        <v>-67</v>
+      </c>
+      <c r="D3" s="40">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="51">
-        <v>2</v>
-      </c>
-      <c r="B4" s="51">
-        <v>6</v>
-      </c>
-      <c r="C4" s="51">
-        <v>3</v>
-      </c>
-      <c r="D4" s="52">
-        <v>-2</v>
+      <c r="A4" s="39">
+        <v>26</v>
+      </c>
+      <c r="B4" s="39">
+        <v>-117</v>
+      </c>
+      <c r="C4" s="39">
+        <v>84</v>
+      </c>
+      <c r="D4" s="40">
+        <v>-47</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="51">
-        <v>-1</v>
-      </c>
-      <c r="B5" s="51">
-        <v>1</v>
-      </c>
-      <c r="C5" s="51">
-        <v>4</v>
-      </c>
-      <c r="D5" s="52">
-        <v>4</v>
+      <c r="A5" s="39">
+        <v>32</v>
+      </c>
+      <c r="B5" s="39">
+        <v>-55</v>
+      </c>
+      <c r="C5" s="39">
+        <v>111</v>
+      </c>
+      <c r="D5" s="40">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4140,10 +3749,10 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="41">
         <v>0.01</v>
       </c>
       <c r="H7" s="17" t="s">
@@ -4175,29 +3784,29 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="55">
-        <f>($A$3-$B$3*B8+C8)/$D$3</f>
-        <v>1</v>
-      </c>
-      <c r="B9" s="55">
-        <f>($D$4-$A$4*A9-3*C8)/$B$4</f>
-        <v>-0.66666666666666663</v>
-      </c>
-      <c r="C9" s="55">
-        <f>($D$5+A9-B9)/$C$5</f>
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="D9" s="55">
+      <c r="A9" s="42">
+        <f>($D$3-$B$3*B8-$C$3*C8)/$A$3</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="B9" s="42">
+        <f>($D$4-$A$4*A9-$C$4*C8)/$B$4</f>
+        <v>0.42785319255907495</v>
+      </c>
+      <c r="C9" s="42">
+        <f>($D$5-$A$5*A9-$B$5*B9)/$C$5</f>
+        <v>1.0339389162918575</v>
+      </c>
+      <c r="D9" s="42">
         <f>ABS(A9-A8)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="55">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="E9" s="42">
         <f>ABS(B9-B8)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F9" s="55">
+        <v>0.42785319255907495</v>
+      </c>
+      <c r="F9" s="42">
         <f>ABS(C9-C8)</f>
-        <v>1.4166666666666667</v>
+        <v>1.0339389162918575</v>
       </c>
       <c r="G9" s="17" t="str">
         <f>IF(AND(D9&lt;$G$7, E9&lt;$G$7, F9&lt;$G$7), "Выполнено", "---")</f>
@@ -4208,32 +3817,32 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="55">
-        <f t="shared" ref="A10:A17" si="0">($A$3-$B$3*B9+C9)/$D$3</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="B10" s="55">
-        <f t="shared" ref="B10:B17" si="1">($D$4-$A$4*A10-3*C9)/$B$4</f>
-        <v>-1.5694444444444444</v>
-      </c>
-      <c r="C10" s="55">
-        <f t="shared" ref="C10:C17" si="2">($D$5+A10-B10)/$C$5</f>
-        <v>1.7881944444444444</v>
-      </c>
-      <c r="D10" s="55">
-        <f t="shared" ref="D10:D17" si="3">ABS(A10-A9)</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="E10" s="55">
-        <f t="shared" ref="E10:E17" si="4">ABS(B10-B9)</f>
-        <v>0.90277777777777779</v>
-      </c>
-      <c r="F10" s="55">
-        <f t="shared" ref="F10:F17" si="5">ABS(C10-C9)</f>
-        <v>0.37152777777777768</v>
+      <c r="A10" s="42">
+        <f t="shared" ref="A10:A28" si="0">($D$3-$B$3*B9-$C$3*C9)/$A$3</f>
+        <v>0.75218539155486486</v>
+      </c>
+      <c r="B10" s="42">
+        <f t="shared" ref="B10:B28" si="1">($D$4-$A$4*A10-$C$4*C9)/$B$4</f>
+        <v>1.3111768303328422</v>
+      </c>
+      <c r="C10" s="42">
+        <f t="shared" ref="C10:C28" si="2">($D$5-$A$5*A10-$B$5*B10)/$C$5</f>
+        <v>1.2886918300770327</v>
+      </c>
+      <c r="D10" s="42">
+        <f t="shared" ref="D10:D28" si="3">ABS(A10-A9)</f>
+        <v>0.63453833273133542</v>
+      </c>
+      <c r="E10" s="42">
+        <f t="shared" ref="E10:E28" si="4">ABS(B10-B9)</f>
+        <v>0.88332363777376721</v>
+      </c>
+      <c r="F10" s="42">
+        <f t="shared" ref="F10:F28" si="5">ABS(C10-C9)</f>
+        <v>0.25475291378517517</v>
       </c>
       <c r="G10" s="17" t="str">
-        <f t="shared" ref="G10:G17" si="6">IF(AND(D10&lt;$G$7, E10&lt;$G$7, F10&lt;$G$7), "Выполнено", "---")</f>
+        <f t="shared" ref="G10:G28" si="6">IF(AND(D10&lt;$G$7, E10&lt;$G$7, F10&lt;$G$7), "Выполнено", "---")</f>
         <v>---</v>
       </c>
       <c r="H10" s="17">
@@ -4241,29 +3850,29 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="55">
-        <f t="shared" si="0"/>
-        <v>2.152281746031746</v>
-      </c>
-      <c r="B11" s="55">
+      <c r="A11" s="42">
+        <f t="shared" si="0"/>
+        <v>1.2390120691947446</v>
+      </c>
+      <c r="B11" s="42">
         <f t="shared" si="1"/>
-        <v>-1.9448578042328044</v>
-      </c>
-      <c r="C11" s="55">
+        <v>1.6022600643208045</v>
+      </c>
+      <c r="C11" s="42">
         <f t="shared" si="2"/>
-        <v>2.0242848875661377</v>
-      </c>
-      <c r="D11" s="55">
+        <v>1.2925758317424543</v>
+      </c>
+      <c r="D11" s="42">
         <f t="shared" si="3"/>
-        <v>0.56894841269841279</v>
-      </c>
-      <c r="E11" s="55">
+        <v>0.48682667763987975</v>
+      </c>
+      <c r="E11" s="42">
         <f t="shared" si="4"/>
-        <v>0.37541335978835999</v>
-      </c>
-      <c r="F11" s="55">
+        <v>0.29108323398796232</v>
+      </c>
+      <c r="F11" s="42">
         <f t="shared" si="5"/>
-        <v>0.23609044312169325</v>
+        <v>3.884001665421577E-3</v>
       </c>
       <c r="G11" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4274,29 +3883,29 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="55">
-        <f t="shared" si="0"/>
-        <v>2.4005308720710508</v>
-      </c>
-      <c r="B12" s="55">
+      <c r="A12" s="42">
+        <f t="shared" si="0"/>
+        <v>1.3643757183503054</v>
+      </c>
+      <c r="B12" s="42">
         <f t="shared" si="1"/>
-        <v>-2.1456527344734191</v>
-      </c>
-      <c r="C12" s="55">
+        <v>1.6329071670382402</v>
+      </c>
+      <c r="C12" s="42">
         <f t="shared" si="2"/>
-        <v>2.1365459016361177</v>
-      </c>
-      <c r="D12" s="55">
+        <v>1.271620461260301</v>
+      </c>
+      <c r="D12" s="42">
         <f t="shared" si="3"/>
-        <v>0.24824912603930471</v>
-      </c>
-      <c r="E12" s="55">
+        <v>0.12536364915556075</v>
+      </c>
+      <c r="E12" s="42">
         <f t="shared" si="4"/>
-        <v>0.20079493024061468</v>
-      </c>
-      <c r="F12" s="55">
+        <v>3.0647102717435759E-2</v>
+      </c>
+      <c r="F12" s="42">
         <f t="shared" si="5"/>
-        <v>0.11226101406998001</v>
+        <v>2.0955370482153235E-2</v>
       </c>
       <c r="G12" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4307,29 +3916,29 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="55">
-        <f t="shared" si="0"/>
-        <v>2.5313081199328278</v>
-      </c>
-      <c r="B13" s="55">
+      <c r="A13" s="42">
+        <f t="shared" si="0"/>
+        <v>1.3682191945223907</v>
+      </c>
+      <c r="B13" s="42">
         <f t="shared" si="1"/>
-        <v>-2.2453756574623349</v>
-      </c>
-      <c r="C13" s="55">
+        <v>1.6187163914824567</v>
+      </c>
+      <c r="C13" s="42">
         <f t="shared" si="2"/>
-        <v>2.1941709443487905</v>
-      </c>
-      <c r="D13" s="55">
+        <v>1.2634809667280955</v>
+      </c>
+      <c r="D13" s="42">
         <f t="shared" si="3"/>
-        <v>0.13077724786177702</v>
-      </c>
-      <c r="E13" s="55">
+        <v>3.8434761720853583E-3</v>
+      </c>
+      <c r="E13" s="42">
         <f t="shared" si="4"/>
-        <v>9.972292298891583E-2</v>
-      </c>
-      <c r="F13" s="55">
+        <v>1.4190775555783519E-2</v>
+      </c>
+      <c r="F13" s="42">
         <f t="shared" si="5"/>
-        <v>5.7625042712672769E-2</v>
+        <v>8.1394945322055268E-3</v>
       </c>
       <c r="G13" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4340,184 +3949,37 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="55">
-        <f t="shared" si="0"/>
-        <v>2.5965247963140183</v>
-      </c>
-      <c r="B14" s="55">
+      <c r="A14" s="42">
+        <f t="shared" si="0"/>
+        <v>1.3586260798506018</v>
+      </c>
+      <c r="B14" s="42">
         <f t="shared" si="1"/>
-        <v>-2.2959270709457349</v>
-      </c>
-      <c r="C14" s="55">
+        <v>1.6107408485579118</v>
+      </c>
+      <c r="C14" s="42">
         <f t="shared" si="2"/>
-        <v>2.2231129668149383</v>
-      </c>
-      <c r="D14" s="55">
+        <v>1.262294703742936</v>
+      </c>
+      <c r="D14" s="42">
         <f t="shared" si="3"/>
-        <v>6.5216676381190553E-2</v>
-      </c>
-      <c r="E14" s="55">
+        <v>9.593114671788916E-3</v>
+      </c>
+      <c r="E14" s="42">
         <f t="shared" si="4"/>
-        <v>5.0551413483399976E-2</v>
-      </c>
-      <c r="F14" s="55">
+        <v>7.9755429245449427E-3</v>
+      </c>
+      <c r="F14" s="42">
         <f t="shared" si="5"/>
-        <v>2.8942022466147854E-2</v>
+        <v>1.1862629851595585E-3</v>
       </c>
       <c r="G14" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>---</v>
+        <v>Выполнено</v>
       </c>
       <c r="H14" s="17">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="55">
-        <f t="shared" si="0"/>
-        <v>2.6295458929425544</v>
-      </c>
-      <c r="B15" s="55">
-        <f t="shared" si="1"/>
-        <v>-2.321405114388321</v>
-      </c>
-      <c r="C15" s="55">
-        <f t="shared" si="2"/>
-        <v>2.2377377518327188</v>
-      </c>
-      <c r="D15" s="55">
-        <f t="shared" si="3"/>
-        <v>3.3021096628536029E-2</v>
-      </c>
-      <c r="E15" s="55">
-        <f t="shared" si="4"/>
-        <v>2.5478043442586085E-2</v>
-      </c>
-      <c r="F15" s="55">
-        <f t="shared" si="5"/>
-        <v>1.4624785017780528E-2</v>
-      </c>
-      <c r="G15" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>---</v>
-      </c>
-      <c r="H15" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="55">
-        <f t="shared" si="0"/>
-        <v>2.6461940299122864</v>
-      </c>
-      <c r="B16" s="55">
-        <f t="shared" si="1"/>
-        <v>-2.3342668858871214</v>
-      </c>
-      <c r="C16" s="55">
-        <f t="shared" si="2"/>
-        <v>2.2451152289498522</v>
-      </c>
-      <c r="D16" s="55">
-        <f t="shared" si="3"/>
-        <v>1.6648136969731997E-2</v>
-      </c>
-      <c r="E16" s="55">
-        <f t="shared" si="4"/>
-        <v>1.2861771498800412E-2</v>
-      </c>
-      <c r="F16" s="55">
-        <f t="shared" si="5"/>
-        <v>7.3774771171333242E-3</v>
-      </c>
-      <c r="G16" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>---</v>
-      </c>
-      <c r="H16" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="55">
-        <f t="shared" si="0"/>
-        <v>2.6545975389283343</v>
-      </c>
-      <c r="B17" s="55">
-        <f t="shared" si="1"/>
-        <v>-2.3407567941177043</v>
-      </c>
-      <c r="C17" s="55">
-        <f t="shared" si="2"/>
-        <v>2.2488385832615094</v>
-      </c>
-      <c r="D17" s="55">
-        <f t="shared" si="3"/>
-        <v>8.4035090160479164E-3</v>
-      </c>
-      <c r="E17" s="55">
-        <f t="shared" si="4"/>
-        <v>6.4899082305829303E-3</v>
-      </c>
-      <c r="F17" s="55">
-        <f t="shared" si="5"/>
-        <v>3.7233543116572676E-3</v>
-      </c>
-      <c r="G17" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Выполнено</v>
-      </c>
-      <c r="H17" s="17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
